--- a/tests/data/test_3.xlsx
+++ b/tests/data/test_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barberia Juan Luis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barberia Juan Luis\Desktop\Software\TNEP.py\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0C46D5-E214-4C67-B177-23A3D1AC5110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BEB11B-5189-45AE-9BEB-708083E11E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10575" yWindow="240" windowWidth="13185" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <t>Rating</t>
   </si>
   <si>
-    <t>Cost</t>
+    <t>Costo</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="B1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.5</v>
+        <v>250</v>
       </c>
       <c r="H3">
         <v>20</v>

--- a/tests/data/test_3.xlsx
+++ b/tests/data/test_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barberia Juan Luis\Desktop\Software\TNEP.py\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BEB11B-5189-45AE-9BEB-708083E11E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DDD758-4EC6-4B14-8DC0-139A555F04A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10575" yWindow="240" windowWidth="13185" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parametros" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Bus k</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Costo</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>NL</t>
   </si>
 </sst>
 </file>
@@ -403,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H3"/>
+  <dimension ref="B1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,64 +425,73 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
         <v>101</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
         <v>0.01</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.1</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>500</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>101</v>
       </c>
       <c r="C3">
         <v>201</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
         <v>0.01</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.1</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>250</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>20</v>
       </c>
     </row>

--- a/tests/data/test_3.xlsx
+++ b/tests/data/test_3.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barberia Juan Luis\Desktop\Software\TNEP.py\tests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barberia Juan Luis\Desktop\TNEP.py\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DDD758-4EC6-4B14-8DC0-139A555F04A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201B03FD-B3BE-4EB5-8C98-F3C491F04302}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="13185" windowHeight="12420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Parametros" sheetId="1" r:id="rId1"/>
+    <sheet name="Candidatas" sheetId="1" r:id="rId1"/>
+    <sheet name="Monitoreadas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Bus k</t>
   </si>
@@ -411,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,4 +499,61 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8244FBF-00AC-47ED-934D-5B52D5D4AFCA}">
+  <dimension ref="B1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>201</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/data/test_3.xlsx
+++ b/tests/data/test_3.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barberia Juan Luis\Desktop\TNEP.py\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201B03FD-B3BE-4EB5-8C98-F3C491F04302}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66414482-3C22-4111-A231-1F0CC8423B8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="13185" windowHeight="12420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10815" yWindow="480" windowWidth="13185" windowHeight="12420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Candidatas" sheetId="1" r:id="rId1"/>
     <sheet name="Monitoreadas" sheetId="2" r:id="rId2"/>
+    <sheet name="Recorte Carga" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Bus k</t>
   </si>
@@ -48,6 +49,12 @@
   </si>
   <si>
     <t>NL</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Recorte Max</t>
   </si>
 </sst>
 </file>
@@ -505,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8244FBF-00AC-47ED-934D-5B52D5D4AFCA}">
   <dimension ref="B1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -556,4 +563,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA743A17-70D8-4631-ACA2-B7F01538E15B}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>